--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianfla/Documents/GitHub/Rainfall-Runoff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A1A45E9-0FCD-FD47-93E2-FE97B955F0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5AA14-9A19-E747-A455-D14DC52A1AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8A5B0956-507E-714C-AA74-3E0284D5C44C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{8A5B0956-507E-714C-AA74-3E0284D5C44C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,124 +37,30 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>年份</t>
+    <t>--</t>
   </si>
   <si>
-    <r>
-      <t>降雨量（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="穝灿砰"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>year</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>流量（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="穝灿砰"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>rainfall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>开采量（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="穝灿砰"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>runoff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>--</t>
+    <t>mining</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,12 +68,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -209,13 +109,6 @@
       <name val="仿宋"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -265,7 +158,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -274,19 +176,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -606,23 +499,23 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="B10:C29"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="35">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1526,11 +1419,11 @@
         <v>0.42</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianfla/Documents/GitHub/Rainfall-Runoff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5AA14-9A19-E747-A455-D14DC52A1AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCF66F6-BFC6-7147-A443-6C47FEBB0052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{8A5B0956-507E-714C-AA74-3E0284D5C44C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{8A5B0956-507E-714C-AA74-3E0284D5C44C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,15 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF56069-3846-614E-A37F-ECE99A6B7515}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -518,7 +518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1953</v>
       </c>
@@ -528,7 +528,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>1954</v>
       </c>
@@ -538,7 +538,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>1955</v>
       </c>
@@ -548,7 +548,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>1956</v>
       </c>
@@ -558,7 +558,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>1957</v>
       </c>
@@ -568,7 +568,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>1958</v>
       </c>
@@ -578,7 +578,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>1959</v>
       </c>
@@ -588,7 +588,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>1960</v>
       </c>
@@ -598,7 +598,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>1961</v>
       </c>
@@ -608,7 +608,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>1962</v>
       </c>
@@ -619,8 +619,17 @@
         <v>3.92</v>
       </c>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>4.2106794051785297</v>
+      </c>
+      <c r="F11">
+        <v>3.8641131979326002</v>
+      </c>
+      <c r="G11">
+        <v>4.5572456124244498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>1963</v>
       </c>
@@ -631,8 +640,17 @@
         <v>4.17</v>
       </c>
       <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>3.9877966816843702</v>
+      </c>
+      <c r="F12">
+        <v>3.63586051470481</v>
+      </c>
+      <c r="G12">
+        <v>4.3397328486639299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>1964</v>
       </c>
@@ -643,8 +661,17 @@
         <v>4.87</v>
       </c>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>4.2975098494255297</v>
+      </c>
+      <c r="F13">
+        <v>3.8789147703080902</v>
+      </c>
+      <c r="G13">
+        <v>4.7161049285429604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>1965</v>
       </c>
@@ -655,8 +682,17 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>4.59617752854715</v>
+      </c>
+      <c r="F14">
+        <v>4.1567637451714203</v>
+      </c>
+      <c r="G14">
+        <v>5.0355913119228903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>1966</v>
       </c>
@@ -667,8 +703,17 @@
         <v>4.22</v>
       </c>
       <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>4.2941969139740603</v>
+      </c>
+      <c r="F15">
+        <v>3.8196076098737</v>
+      </c>
+      <c r="G15">
+        <v>4.7687862180744203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>1967</v>
       </c>
@@ -679,8 +724,17 @@
         <v>3.95</v>
       </c>
       <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>3.8458737441234101</v>
+      </c>
+      <c r="F16">
+        <v>3.4447318656590298</v>
+      </c>
+      <c r="G16">
+        <v>4.2470156225877798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>1968</v>
       </c>
@@ -691,8 +745,17 @@
         <v>3.84</v>
       </c>
       <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>3.86001771760434</v>
+      </c>
+      <c r="F17">
+        <v>3.4905066165330001</v>
+      </c>
+      <c r="G17">
+        <v>4.2295288186756901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>1969</v>
       </c>
@@ -703,8 +766,17 @@
         <v>3.84</v>
       </c>
       <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>4.1640391136256696</v>
+      </c>
+      <c r="F18">
+        <v>3.86447924783681</v>
+      </c>
+      <c r="G18">
+        <v>4.4635989794145301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>1970</v>
       </c>
@@ -715,8 +787,17 @@
         <v>4.34</v>
       </c>
       <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>4.1781412033487904</v>
+      </c>
+      <c r="F19">
+        <v>3.8957051098025</v>
+      </c>
+      <c r="G19">
+        <v>4.4605772968950701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>1971</v>
       </c>
@@ -727,8 +808,17 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>3.8678104905925101</v>
+      </c>
+      <c r="F20">
+        <v>3.5582784259909999</v>
+      </c>
+      <c r="G20">
+        <v>4.1773425551940297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>1972</v>
       </c>
@@ -739,8 +829,17 @@
         <v>3.57</v>
       </c>
       <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+      <c r="E21">
+        <v>3.6967137827809902</v>
+      </c>
+      <c r="F21">
+        <v>3.2049309649851798</v>
+      </c>
+      <c r="G21">
+        <v>4.1884966005767996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22" s="3">
         <v>1973</v>
       </c>
@@ -753,8 +852,17 @@
       <c r="D22" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="19" customHeight="1">
+      <c r="E22">
+        <v>2.8945921841549902</v>
+      </c>
+      <c r="F22">
+        <v>2.4204025498710502</v>
+      </c>
+      <c r="G22">
+        <v>3.36878181843892</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19" customHeight="1">
       <c r="A23" s="3">
         <v>1974</v>
       </c>
@@ -767,8 +875,17 @@
       <c r="D23" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="13" customHeight="1">
+      <c r="E23">
+        <v>3.2665739379329701</v>
+      </c>
+      <c r="F23">
+        <v>2.8080038693712202</v>
+      </c>
+      <c r="G23">
+        <v>3.7251440064947299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="13" customHeight="1">
       <c r="A24" s="3">
         <v>1975</v>
       </c>
@@ -781,8 +898,17 @@
       <c r="D24" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="16" customHeight="1">
+      <c r="E24">
+        <v>3.43508429014584</v>
+      </c>
+      <c r="F24">
+        <v>3.0638859055416798</v>
+      </c>
+      <c r="G24">
+        <v>3.80628267474999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" customHeight="1">
       <c r="A25" s="3">
         <v>1976</v>
       </c>
@@ -795,8 +921,17 @@
       <c r="D25" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="14" customHeight="1">
+      <c r="E25">
+        <v>3.6931900974106</v>
+      </c>
+      <c r="F25">
+        <v>3.4178812455097298</v>
+      </c>
+      <c r="G25">
+        <v>3.96849894931146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14" customHeight="1">
       <c r="A26" s="3">
         <v>1977</v>
       </c>
@@ -809,8 +944,17 @@
       <c r="D26" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+      <c r="E26">
+        <v>3.5434654834976298</v>
+      </c>
+      <c r="F26">
+        <v>3.2346335203839498</v>
+      </c>
+      <c r="G26">
+        <v>3.85229744661132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="3">
         <v>1978</v>
       </c>
@@ -823,8 +967,17 @@
       <c r="D27" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>3.9849213725348802</v>
+      </c>
+      <c r="F27">
+        <v>3.72159193645903</v>
+      </c>
+      <c r="G27">
+        <v>4.24825080861073</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="3">
         <v>1979</v>
       </c>
@@ -837,8 +990,17 @@
       <c r="D28" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1">
+      <c r="E28">
+        <v>4.3432162034376001</v>
+      </c>
+      <c r="F28">
+        <v>4.0490013905667999</v>
+      </c>
+      <c r="G28">
+        <v>4.6374310163084003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1">
       <c r="A29" s="3">
         <v>1980</v>
       </c>
@@ -851,8 +1013,17 @@
       <c r="D29" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" customHeight="1">
+      <c r="E29">
+        <v>4.0754635395218601</v>
+      </c>
+      <c r="F29">
+        <v>3.75678073317171</v>
+      </c>
+      <c r="G29">
+        <v>4.3941463458720103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" customHeight="1">
       <c r="A30" s="3">
         <v>1981</v>
       </c>
@@ -865,8 +1036,17 @@
       <c r="D30" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" customHeight="1">
+      <c r="E30">
+        <v>3.7890569098211002</v>
+      </c>
+      <c r="F30">
+        <v>3.51485130907334</v>
+      </c>
+      <c r="G30">
+        <v>4.06326251056886</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" customHeight="1">
       <c r="A31" s="3">
         <v>1982</v>
       </c>
@@ -879,8 +1059,17 @@
       <c r="D31" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>3.5690492781902199</v>
+      </c>
+      <c r="F31">
+        <v>3.2475667829834198</v>
+      </c>
+      <c r="G31">
+        <v>3.8905317733970102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="6">
         <v>1983</v>
       </c>
@@ -893,8 +1082,17 @@
       <c r="D32" s="5">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>3.4741624536242002</v>
+      </c>
+      <c r="F32">
+        <v>3.1170500470361899</v>
+      </c>
+      <c r="G32">
+        <v>3.83127486021221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="6">
         <v>1984</v>
       </c>
@@ -907,8 +1105,17 @@
       <c r="D33" s="5">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>3.1743481755934302</v>
+      </c>
+      <c r="F33">
+        <v>2.8134756187920602</v>
+      </c>
+      <c r="G33">
+        <v>3.5352207323948002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="6">
         <v>1985</v>
       </c>
@@ -921,8 +1128,17 @@
       <c r="D34" s="5">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>3.1689742166010402</v>
+      </c>
+      <c r="F34">
+        <v>2.8061165955418201</v>
+      </c>
+      <c r="G34">
+        <v>3.5318318376602602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="6">
         <v>1986</v>
       </c>
@@ -935,8 +1151,17 @@
       <c r="D35" s="5">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>3.6878099936158901</v>
+      </c>
+      <c r="F35">
+        <v>3.3911274883298699</v>
+      </c>
+      <c r="G35">
+        <v>3.9844924989019002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="6">
         <v>1987</v>
       </c>
@@ -949,8 +1174,17 @@
       <c r="D36" s="5">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>3.64212085215717</v>
+      </c>
+      <c r="F36">
+        <v>3.35409259256422</v>
+      </c>
+      <c r="G36">
+        <v>3.9301491117501302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="6">
         <v>1988</v>
       </c>
@@ -963,8 +1197,17 @@
       <c r="D37" s="5">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>3.5084960051165699</v>
+      </c>
+      <c r="F37">
+        <v>3.2202698628576298</v>
+      </c>
+      <c r="G37">
+        <v>3.7967221473755099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="6">
         <v>1989</v>
       </c>
@@ -977,8 +1220,17 @@
       <c r="D38" s="5">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>3.6181175232833298</v>
+      </c>
+      <c r="F38">
+        <v>3.3234540429183799</v>
+      </c>
+      <c r="G38">
+        <v>3.91278100364827</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="6">
         <v>1990</v>
       </c>
@@ -991,8 +1243,17 @@
       <c r="D39" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>3.8226755775101799</v>
+      </c>
+      <c r="F39">
+        <v>3.5861602210947399</v>
+      </c>
+      <c r="G39">
+        <v>4.0591909339256196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="6">
         <v>1991</v>
       </c>
@@ -1005,8 +1266,17 @@
       <c r="D40" s="4">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>3.6814536293511302</v>
+      </c>
+      <c r="F40">
+        <v>3.44121853107821</v>
+      </c>
+      <c r="G40">
+        <v>3.9216887276240602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="6">
         <v>1992</v>
       </c>
@@ -1019,8 +1289,17 @@
       <c r="D41" s="4">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>3.5385403759823699</v>
+      </c>
+      <c r="F41">
+        <v>3.2947489746147101</v>
+      </c>
+      <c r="G41">
+        <v>3.7823317773500298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="6">
         <v>1993</v>
       </c>
@@ -1033,8 +1312,17 @@
       <c r="D42" s="4">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>3.60798565711662</v>
+      </c>
+      <c r="F42">
+        <v>3.3701976901106798</v>
+      </c>
+      <c r="G42">
+        <v>3.8457736241225602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="6">
         <v>1994</v>
       </c>
@@ -1047,8 +1335,17 @@
       <c r="D43" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>3.49283880475646</v>
+      </c>
+      <c r="F43">
+        <v>3.2499055561729402</v>
+      </c>
+      <c r="G43">
+        <v>3.7357720533399799</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="6">
         <v>1995</v>
       </c>
@@ -1061,8 +1358,17 @@
       <c r="D44" s="4">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>3.6770384697953098</v>
+      </c>
+      <c r="F44">
+        <v>3.40640946329632</v>
+      </c>
+      <c r="G44">
+        <v>3.9476674762943</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="6">
         <v>1996</v>
       </c>
@@ -1075,8 +1381,17 @@
       <c r="D45" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>3.6181474739852701</v>
+      </c>
+      <c r="F45">
+        <v>3.3412760962856201</v>
+      </c>
+      <c r="G45">
+        <v>3.8950188516849198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="6">
         <v>1997</v>
       </c>
@@ -1089,8 +1404,17 @@
       <c r="D46" s="4">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>3.5963722337866799</v>
+      </c>
+      <c r="F46">
+        <v>3.2069663557280501</v>
+      </c>
+      <c r="G46">
+        <v>3.9857781118453102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="6">
         <v>1998</v>
       </c>
@@ -1103,8 +1427,17 @@
       <c r="D47" s="4">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>3.21333379623433</v>
+      </c>
+      <c r="F47">
+        <v>2.72396481979108</v>
+      </c>
+      <c r="G47">
+        <v>3.7027027726775801</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="6">
         <v>1999</v>
       </c>
@@ -1117,8 +1450,17 @@
       <c r="D48" s="4">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>3.0171966379507902</v>
+      </c>
+      <c r="F48">
+        <v>2.35837232469741</v>
+      </c>
+      <c r="G48">
+        <v>3.6760209512041699</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="6">
         <v>2000</v>
       </c>
@@ -1131,8 +1473,17 @@
       <c r="D49" s="4">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>2.4089377032884798</v>
+      </c>
+      <c r="F49">
+        <v>1.7523613395878299</v>
+      </c>
+      <c r="G49">
+        <v>3.0655140669891301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="6">
         <v>2001</v>
       </c>
@@ -1145,8 +1496,17 @@
       <c r="D50" s="4">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>2.6057996863661299</v>
+      </c>
+      <c r="F50">
+        <v>1.9982573282809599</v>
+      </c>
+      <c r="G50">
+        <v>3.2133420444512999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="6">
         <v>2002</v>
       </c>
@@ -1159,8 +1519,17 @@
       <c r="D51" s="4">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>2.9768166867054799</v>
+      </c>
+      <c r="F51">
+        <v>2.5013901709939899</v>
+      </c>
+      <c r="G51">
+        <v>3.4522432024169598</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="6">
         <v>2003</v>
       </c>
@@ -1173,8 +1542,17 @@
       <c r="D52" s="4">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>3.3066010431667499</v>
+      </c>
+      <c r="F52">
+        <v>2.9984389538870602</v>
+      </c>
+      <c r="G52">
+        <v>3.61476313244644</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="6">
         <v>2004</v>
       </c>
@@ -1187,8 +1565,17 @@
       <c r="D53" s="4">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>3.6050831148758902</v>
+      </c>
+      <c r="F53">
+        <v>3.2906698353690298</v>
+      </c>
+      <c r="G53">
+        <v>3.9194963943827599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="6">
         <v>2005</v>
       </c>
@@ -1201,8 +1588,17 @@
       <c r="D54" s="4">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>3.7085568898043699</v>
+      </c>
+      <c r="F54">
+        <v>3.2949397288259998</v>
+      </c>
+      <c r="G54">
+        <v>4.12217405078274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="6">
         <v>2006</v>
       </c>
@@ -1215,8 +1611,17 @@
       <c r="D55" s="4">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>3.3177287860205098</v>
+      </c>
+      <c r="F55">
+        <v>2.86570240901953</v>
+      </c>
+      <c r="G55">
+        <v>3.7697551630214998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="6">
         <v>2007</v>
       </c>
@@ -1229,8 +1634,17 @@
       <c r="D56" s="4">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>2.9113718748994701</v>
+      </c>
+      <c r="F56">
+        <v>2.46346975392931</v>
+      </c>
+      <c r="G56">
+        <v>3.3592739958696201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="6">
         <v>2008</v>
       </c>
@@ -1243,8 +1657,17 @@
       <c r="D57" s="4">
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>3.3399510541844202</v>
+      </c>
+      <c r="F57">
+        <v>2.9801810664871402</v>
+      </c>
+      <c r="G57">
+        <v>3.6997210418817001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="6">
         <v>2009</v>
       </c>
@@ -1257,8 +1680,17 @@
       <c r="D58" s="4">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>3.55974027364234</v>
+      </c>
+      <c r="F58">
+        <v>3.2444400704120602</v>
+      </c>
+      <c r="G58">
+        <v>3.8750404768726101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="6">
         <v>2010</v>
       </c>
@@ -1271,8 +1703,17 @@
       <c r="D59" s="7">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>3.9847441575895899</v>
+      </c>
+      <c r="F59">
+        <v>3.7164217394000398</v>
+      </c>
+      <c r="G59">
+        <v>4.2530665757791297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="6">
         <v>2011</v>
       </c>
@@ -1285,8 +1726,17 @@
       <c r="D60" s="4">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>3.9681913884528099</v>
+      </c>
+      <c r="F60">
+        <v>3.6531137398068698</v>
+      </c>
+      <c r="G60">
+        <v>4.2832690370987496</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="6">
         <v>2012</v>
       </c>
@@ -1299,8 +1749,17 @@
       <c r="D61" s="4">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>4.2545302039319299</v>
+      </c>
+      <c r="F61">
+        <v>3.9821563622298699</v>
+      </c>
+      <c r="G61">
+        <v>4.5269040456339997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="6">
         <v>2013</v>
       </c>
@@ -1313,8 +1772,17 @@
       <c r="D62" s="4">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>3.9973275515438602</v>
+      </c>
+      <c r="F62">
+        <v>3.6441211089585099</v>
+      </c>
+      <c r="G62">
+        <v>4.3505339941292203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="6">
         <v>2014</v>
       </c>
@@ -1327,8 +1795,17 @@
       <c r="D63" s="4">
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>4.4259573885044796</v>
+      </c>
+      <c r="F63">
+        <v>4.0964477138552198</v>
+      </c>
+      <c r="G63">
+        <v>4.7554670631537403</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="6">
         <v>2015</v>
       </c>
@@ -1341,8 +1818,17 @@
       <c r="D64" s="4">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>4.534247688512</v>
+      </c>
+      <c r="F64">
+        <v>4.1430071724495896</v>
+      </c>
+      <c r="G64">
+        <v>4.9254882045744104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="6">
         <v>2016</v>
       </c>
@@ -1355,8 +1841,17 @@
       <c r="D65" s="4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>4.0468156033554603</v>
+      </c>
+      <c r="F65">
+        <v>3.6246768805273799</v>
+      </c>
+      <c r="G65">
+        <v>4.4689543261835398</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="6">
         <v>2017</v>
       </c>
@@ -1369,8 +1864,17 @@
       <c r="D66" s="4">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>3.7814267302076598</v>
+      </c>
+      <c r="F66">
+        <v>3.2897538663899502</v>
+      </c>
+      <c r="G66">
+        <v>4.2730995940253704</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="6">
         <v>2018</v>
       </c>
@@ -1383,8 +1887,17 @@
       <c r="D67" s="4">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>4.4197008538334401</v>
+      </c>
+      <c r="F67">
+        <v>3.9382568186184201</v>
+      </c>
+      <c r="G67">
+        <v>4.9011448890484601</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="6">
         <v>2019</v>
       </c>
@@ -1397,8 +1910,17 @@
       <c r="D68" s="4">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>4.7354995147268699</v>
+      </c>
+      <c r="F68">
+        <v>4.2617809431110096</v>
+      </c>
+      <c r="G68">
+        <v>5.2092180863427302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="8">
         <v>2020</v>
       </c>
@@ -1411,8 +1933,17 @@
       <c r="D69" s="5">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>4.2471475747366503</v>
+      </c>
+      <c r="F69">
+        <v>3.9157409872989599</v>
+      </c>
+      <c r="G69">
+        <v>4.5785541621743402</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="5">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianfla/Documents/GitHub/Rainfall-Runoff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCF66F6-BFC6-7147-A443-6C47FEBB0052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C505C187-CF8E-4647-A8C2-824431A26EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{8A5B0956-507E-714C-AA74-3E0284D5C44C}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>--</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>year</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -151,7 +148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,6 +177,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -498,24 +498,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF56069-3846-614E-A37F-ECE99A6B7515}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1944,12 +1944,16 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B70" s="10">
+        <v>0</v>
+      </c>
       <c r="C70" s="5">
         <v>0.42</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="4">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianfla/Documents/GitHub/Rainfall-Runoff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C505C187-CF8E-4647-A8C2-824431A26EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA65B4E-3D81-004B-AB19-4014C1194376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{8A5B0956-507E-714C-AA74-3E0284D5C44C}"/>
   </bookViews>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF56069-3846-614E-A37F-ECE99A6B7515}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -526,7 +526,9 @@
         <v>428.57</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
@@ -536,7 +538,9 @@
         <v>524.57000000000005</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
@@ -546,7 +550,9 @@
         <v>643</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
@@ -556,7 +562,9 @@
         <v>687</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
@@ -566,7 +574,9 @@
         <v>459.8</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
@@ -576,7 +586,9 @@
         <v>620.92999999999995</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3">
@@ -586,7 +598,9 @@
         <v>708.07</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3">
@@ -596,7 +610,9 @@
         <v>388.3</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3">
@@ -606,7 +622,9 @@
         <v>692.5</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
@@ -618,7 +636,9 @@
       <c r="C11" s="4">
         <v>3.92</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
       <c r="E11">
         <v>4.2106794051785297</v>
       </c>
@@ -639,7 +659,9 @@
       <c r="C12" s="4">
         <v>4.17</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
       <c r="E12">
         <v>3.9877966816843702</v>
       </c>
@@ -660,7 +682,9 @@
       <c r="C13" s="4">
         <v>4.87</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
       <c r="E13">
         <v>4.2975098494255297</v>
       </c>
@@ -681,7 +705,9 @@
       <c r="C14" s="4">
         <v>4.6500000000000004</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
       <c r="E14">
         <v>4.59617752854715</v>
       </c>
@@ -702,7 +728,9 @@
       <c r="C15" s="4">
         <v>4.22</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
       <c r="E15">
         <v>4.2941969139740603</v>
       </c>
@@ -723,7 +751,9 @@
       <c r="C16" s="4">
         <v>3.95</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
       <c r="E16">
         <v>3.8458737441234101</v>
       </c>
@@ -744,7 +774,9 @@
       <c r="C17" s="4">
         <v>3.84</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
       <c r="E17">
         <v>3.86001771760434</v>
       </c>
@@ -765,7 +797,9 @@
       <c r="C18" s="4">
         <v>3.84</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
       <c r="E18">
         <v>4.1640391136256696</v>
       </c>
@@ -786,7 +820,9 @@
       <c r="C19" s="4">
         <v>4.34</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
       <c r="E19">
         <v>4.1781412033487904</v>
       </c>
@@ -807,7 +843,9 @@
       <c r="C20" s="4">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
       <c r="E20">
         <v>3.8678104905925101</v>
       </c>
@@ -828,7 +866,9 @@
       <c r="C21" s="4">
         <v>3.57</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
       <c r="E21">
         <v>3.6967137827809902</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianfla/Documents/GitHub/Rainfall-Runoff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA65B4E-3D81-004B-AB19-4014C1194376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC0527D-D0D1-364D-B5E6-2BDC02A5CBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{8A5B0956-507E-714C-AA74-3E0284D5C44C}"/>
+    <workbookView xWindow="14940" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{8A5B0956-507E-714C-AA74-3E0284D5C44C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>year</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -52,12 +52,36 @@
     <t>mining</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>predict</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,6 +149,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="穝灿砰"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,6 +209,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -496,15 +528,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF56069-3846-614E-A37F-ECE99A6B7515}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -517,8 +549,26 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>1953</v>
       </c>
@@ -530,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>1954</v>
       </c>
@@ -542,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>1955</v>
       </c>
@@ -554,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>1956</v>
       </c>
@@ -566,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>1957</v>
       </c>
@@ -578,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>1958</v>
       </c>
@@ -590,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>1959</v>
       </c>
@@ -602,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>1960</v>
       </c>
@@ -614,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>1961</v>
       </c>
@@ -626,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>1962</v>
       </c>
@@ -640,16 +690,25 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4.2106794051785297</v>
+        <v>4.21226563327901</v>
       </c>
       <c r="F11">
-        <v>3.8641131979326002</v>
+        <v>3.5789780003000198</v>
       </c>
       <c r="G11">
-        <v>4.5572456124244498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>4.8455532662580101</v>
+      </c>
+      <c r="H11">
+        <v>0.292265633279019</v>
+      </c>
+      <c r="I11">
+        <v>-0.34102199969997399</v>
+      </c>
+      <c r="J11">
+        <v>0.92555326625801204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>1963</v>
       </c>
@@ -663,16 +722,25 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.9877966816843702</v>
+        <v>4.0380022942569598</v>
       </c>
       <c r="F12">
-        <v>3.63586051470481</v>
+        <v>3.40471466127797</v>
       </c>
       <c r="G12">
-        <v>4.3397328486639299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>4.67128992723595</v>
+      </c>
+      <c r="H12">
+        <v>-0.13199770574303399</v>
+      </c>
+      <c r="I12">
+        <v>-0.76528533872202797</v>
+      </c>
+      <c r="J12">
+        <v>0.501289927235959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>1964</v>
       </c>
@@ -686,16 +754,25 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4.2975098494255297</v>
+        <v>4.3868823023394601</v>
       </c>
       <c r="F13">
-        <v>3.8789147703080902</v>
+        <v>3.7535946693604698</v>
       </c>
       <c r="G13">
-        <v>4.7161049285429604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>5.0201699353184601</v>
+      </c>
+      <c r="H13">
+        <v>-0.48311769766053198</v>
+      </c>
+      <c r="I13">
+        <v>-1.1164053306395201</v>
+      </c>
+      <c r="J13">
+        <v>0.15016993531846001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>1965</v>
       </c>
@@ -709,16 +786,25 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4.59617752854715</v>
+        <v>4.5320151797129</v>
       </c>
       <c r="F14">
-        <v>4.1567637451714203</v>
+        <v>3.8987275467339</v>
       </c>
       <c r="G14">
-        <v>5.0355913119228903</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>5.1653028126918903</v>
+      </c>
+      <c r="H14">
+        <v>-0.117984820287096</v>
+      </c>
+      <c r="I14">
+        <v>-0.75127245326609005</v>
+      </c>
+      <c r="J14">
+        <v>0.51530281269189704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>1966</v>
       </c>
@@ -732,16 +818,25 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4.2941969139740603</v>
+        <v>4.2827814785383298</v>
       </c>
       <c r="F15">
-        <v>3.8196076098737</v>
+        <v>3.64949384555934</v>
       </c>
       <c r="G15">
-        <v>4.7687862180744203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>4.9160691115173201</v>
+      </c>
+      <c r="H15">
+        <v>6.2781478538334407E-2</v>
+      </c>
+      <c r="I15">
+        <v>-0.570506154440659</v>
+      </c>
+      <c r="J15">
+        <v>0.69606911151732798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>1967</v>
       </c>
@@ -755,16 +850,25 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3.8458737441234101</v>
+        <v>3.8948313697306198</v>
       </c>
       <c r="F16">
-        <v>3.4447318656590298</v>
+        <v>3.26154373675163</v>
       </c>
       <c r="G16">
-        <v>4.2470156225877798</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>4.5281190027096203</v>
+      </c>
+      <c r="H16">
+        <v>-5.5168630269371903E-2</v>
+      </c>
+      <c r="I16">
+        <v>-0.68845626324836495</v>
+      </c>
+      <c r="J16">
+        <v>0.57811900270962102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="3">
         <v>1968</v>
       </c>
@@ -778,16 +882,25 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3.86001771760434</v>
+        <v>3.8606633023343799</v>
       </c>
       <c r="F17">
-        <v>3.4905066165330001</v>
+        <v>3.2273756693553901</v>
       </c>
       <c r="G17">
-        <v>4.2295288186756901</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>4.4939509353133698</v>
+      </c>
+      <c r="H17">
+        <v>2.0663302334384001E-2</v>
+      </c>
+      <c r="I17">
+        <v>-0.61262433064460897</v>
+      </c>
+      <c r="J17">
+        <v>0.653950935313377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="3">
         <v>1969</v>
       </c>
@@ -801,16 +914,25 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>4.1640391136256696</v>
+        <v>4.1913284857733499</v>
       </c>
       <c r="F18">
-        <v>3.86447924783681</v>
+        <v>3.5580408527943499</v>
       </c>
       <c r="G18">
-        <v>4.4635989794145301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>4.8246161187523402</v>
+      </c>
+      <c r="H18">
+        <v>0.35132848577335002</v>
+      </c>
+      <c r="I18">
+        <v>-0.28195914720564202</v>
+      </c>
+      <c r="J18">
+        <v>0.98461611875234401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="3">
         <v>1970</v>
       </c>
@@ -824,16 +946,25 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4.1781412033487904</v>
+        <v>4.1385947866759896</v>
       </c>
       <c r="F19">
-        <v>3.8957051098025</v>
+        <v>3.5053071536970002</v>
       </c>
       <c r="G19">
-        <v>4.4605772968950701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>4.7718824196549896</v>
+      </c>
+      <c r="H19">
+        <v>-0.20140521332400299</v>
+      </c>
+      <c r="I19">
+        <v>-0.834692846302997</v>
+      </c>
+      <c r="J19">
+        <v>0.43188241965499002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="3">
         <v>1971</v>
       </c>
@@ -847,16 +978,25 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>3.8678104905925101</v>
+        <v>3.8104313346637402</v>
       </c>
       <c r="F20">
-        <v>3.5582784259909999</v>
+        <v>3.1771437016847401</v>
       </c>
       <c r="G20">
-        <v>4.1773425551940297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>4.44371896764273</v>
+      </c>
+      <c r="H20">
+        <v>-0.32956866533625701</v>
+      </c>
+      <c r="I20">
+        <v>-0.96285629831525099</v>
+      </c>
+      <c r="J20">
+        <v>0.30371896764273598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="3">
         <v>1972</v>
       </c>
@@ -870,16 +1010,25 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3.6967137827809902</v>
+        <v>3.5842876905445999</v>
       </c>
       <c r="F21">
-        <v>3.2049309649851798</v>
+        <v>2.9510000575655999</v>
       </c>
       <c r="G21">
-        <v>4.1884966005767996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
+        <v>4.2175753235235902</v>
+      </c>
+      <c r="H21">
+        <v>1.4287690544603601E-2</v>
+      </c>
+      <c r="I21">
+        <v>-0.61899994243439005</v>
+      </c>
+      <c r="J21">
+        <v>0.64757532352359704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="3">
         <v>1973</v>
       </c>
@@ -893,16 +1042,25 @@
         <v>0.03</v>
       </c>
       <c r="E22">
-        <v>2.8945921841549902</v>
+        <v>2.93474553780064</v>
       </c>
       <c r="F22">
-        <v>2.4204025498710502</v>
+        <v>2.3014579048216501</v>
       </c>
       <c r="G22">
-        <v>3.36878181843892</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="19" customHeight="1">
+        <v>3.5680331707796298</v>
+      </c>
+      <c r="H22">
+        <v>-0.325254462199355</v>
+      </c>
+      <c r="I22">
+        <v>-0.95854209517834899</v>
+      </c>
+      <c r="J22">
+        <v>0.30803317077963799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19" customHeight="1">
       <c r="A23" s="3">
         <v>1974</v>
       </c>
@@ -916,16 +1074,25 @@
         <v>0.03</v>
       </c>
       <c r="E23">
-        <v>3.2665739379329701</v>
+        <v>3.2345539305453999</v>
       </c>
       <c r="F23">
-        <v>2.8080038693712202</v>
+        <v>2.6012662975663998</v>
       </c>
       <c r="G23">
-        <v>3.7251440064947299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="13" customHeight="1">
+        <v>3.8678415635243901</v>
+      </c>
+      <c r="H23">
+        <v>-0.195446069454598</v>
+      </c>
+      <c r="I23">
+        <v>-0.82873370243359201</v>
+      </c>
+      <c r="J23">
+        <v>0.43784156352439502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="13" customHeight="1">
       <c r="A24" s="3">
         <v>1975</v>
       </c>
@@ -939,16 +1106,25 @@
         <v>0.03</v>
       </c>
       <c r="E24">
-        <v>3.43508429014584</v>
+        <v>3.4369191805178301</v>
       </c>
       <c r="F24">
-        <v>3.0638859055416798</v>
+        <v>2.80363154753883</v>
       </c>
       <c r="G24">
-        <v>3.80628267474999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1">
+        <v>4.0702068134968199</v>
+      </c>
+      <c r="H24">
+        <v>7.6919180517832406E-2</v>
+      </c>
+      <c r="I24">
+        <v>-0.55636845246116096</v>
+      </c>
+      <c r="J24">
+        <v>0.71020681349682602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16" customHeight="1">
       <c r="A25" s="3">
         <v>1976</v>
       </c>
@@ -962,16 +1138,25 @@
         <v>0.03</v>
       </c>
       <c r="E25">
-        <v>3.6931900974106</v>
+        <v>3.69555895885664</v>
       </c>
       <c r="F25">
-        <v>3.4178812455097298</v>
+        <v>3.0622713258776399</v>
       </c>
       <c r="G25">
-        <v>3.96849894931146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14" customHeight="1">
+        <v>4.3288465918356298</v>
+      </c>
+      <c r="H25">
+        <v>0.395558958856641</v>
+      </c>
+      <c r="I25">
+        <v>-0.23772867412235199</v>
+      </c>
+      <c r="J25">
+        <v>1.02884659183563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14" customHeight="1">
       <c r="A26" s="3">
         <v>1977</v>
       </c>
@@ -985,16 +1170,25 @@
         <v>0.03</v>
       </c>
       <c r="E26">
-        <v>3.5434654834976298</v>
+        <v>3.59169576340638</v>
       </c>
       <c r="F26">
-        <v>3.2346335203839498</v>
+        <v>2.9584081304273901</v>
       </c>
       <c r="G26">
-        <v>3.85229744661132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
+        <v>4.2249833963853796</v>
+      </c>
+      <c r="H26">
+        <v>0.45169576340638601</v>
+      </c>
+      <c r="I26">
+        <v>-0.18159186957260701</v>
+      </c>
+      <c r="J26">
+        <v>1.0849833963853801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="3">
         <v>1978</v>
       </c>
@@ -1008,16 +1202,25 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E27">
-        <v>3.9849213725348802</v>
+        <v>4.0380882146770896</v>
       </c>
       <c r="F27">
-        <v>3.72159193645903</v>
+        <v>3.4048005816981002</v>
       </c>
       <c r="G27">
-        <v>4.24825080861073</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>4.6713758476560896</v>
+      </c>
+      <c r="H27">
+        <v>0.478088214677097</v>
+      </c>
+      <c r="I27">
+        <v>-0.15519941830189601</v>
+      </c>
+      <c r="J27">
+        <v>1.11137584765609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="3">
         <v>1979</v>
       </c>
@@ -1031,16 +1234,25 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E28">
-        <v>4.3432162034376001</v>
+        <v>4.2963545563466603</v>
       </c>
       <c r="F28">
-        <v>4.0490013905667999</v>
+        <v>3.6630669233676598</v>
       </c>
       <c r="G28">
-        <v>4.6374310163084003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1">
+        <v>4.9296421893256497</v>
+      </c>
+      <c r="H28">
+        <v>-0.30364544365333601</v>
+      </c>
+      <c r="I28">
+        <v>-0.93693307663233005</v>
+      </c>
+      <c r="J28">
+        <v>0.32964218932565698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1">
       <c r="A29" s="3">
         <v>1980</v>
       </c>
@@ -1054,16 +1266,25 @@
         <v>0.05</v>
       </c>
       <c r="E29">
-        <v>4.0754635395218601</v>
+        <v>4.0571592610071896</v>
       </c>
       <c r="F29">
-        <v>3.75678073317171</v>
+        <v>3.42387162802819</v>
       </c>
       <c r="G29">
-        <v>4.3941463458720103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1">
+        <v>4.6904468939861799</v>
+      </c>
+      <c r="H29">
+        <v>-8.2840738992806501E-2</v>
+      </c>
+      <c r="I29">
+        <v>-0.71612837197180002</v>
+      </c>
+      <c r="J29">
+        <v>0.55044689398618696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16" customHeight="1">
       <c r="A30" s="3">
         <v>1981</v>
       </c>
@@ -1077,16 +1298,25 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E30">
-        <v>3.7890569098211002</v>
+        <v>3.7577111780036399</v>
       </c>
       <c r="F30">
-        <v>3.51485130907334</v>
+        <v>3.1244235450246398</v>
       </c>
       <c r="G30">
-        <v>4.06326251056886</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="17" customHeight="1">
+        <v>4.3909988109826301</v>
+      </c>
+      <c r="H30">
+        <v>0.26771117800363903</v>
+      </c>
+      <c r="I30">
+        <v>-0.36557645497535401</v>
+      </c>
+      <c r="J30">
+        <v>0.90099881098263301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="17" customHeight="1">
       <c r="A31" s="3">
         <v>1982</v>
       </c>
@@ -1100,16 +1330,25 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E31">
-        <v>3.5690492781902199</v>
+        <v>3.50984505604535</v>
       </c>
       <c r="F31">
-        <v>3.2475667829834198</v>
+        <v>2.8765574230663602</v>
       </c>
       <c r="G31">
-        <v>3.8905317733970102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>4.1431326890243403</v>
+      </c>
+      <c r="H31">
+        <v>0.24984505604535501</v>
+      </c>
+      <c r="I31">
+        <v>-0.38344257693363798</v>
+      </c>
+      <c r="J31">
+        <v>0.88313268902434905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="6">
         <v>1983</v>
       </c>
@@ -1123,16 +1362,25 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E32">
-        <v>3.4741624536242002</v>
+        <v>3.4213422168207002</v>
       </c>
       <c r="F32">
-        <v>3.1170500470361899</v>
+        <v>2.7880545838417099</v>
       </c>
       <c r="G32">
-        <v>3.83127486021221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>4.0546298497997002</v>
+      </c>
+      <c r="H32">
+        <v>0.41134221682070699</v>
+      </c>
+      <c r="I32">
+        <v>-0.221945416158286</v>
+      </c>
+      <c r="J32">
+        <v>1.0446298497997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="6">
         <v>1984</v>
       </c>
@@ -1146,16 +1394,25 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E33">
-        <v>3.1743481755934302</v>
+        <v>3.15469739558266</v>
       </c>
       <c r="F33">
-        <v>2.8134756187920602</v>
+        <v>2.5214097626036698</v>
       </c>
       <c r="G33">
-        <v>3.5352207323948002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>3.7879850285616601</v>
+      </c>
+      <c r="H33">
+        <v>0.28469739558266799</v>
+      </c>
+      <c r="I33">
+        <v>-0.348590237396325</v>
+      </c>
+      <c r="J33">
+        <v>0.91798502856166198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="6">
         <v>1985</v>
       </c>
@@ -1169,16 +1426,25 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E34">
-        <v>3.1689742166010402</v>
+        <v>3.20615847416133</v>
       </c>
       <c r="F34">
-        <v>2.8061165955418201</v>
+        <v>2.5728708411823402</v>
       </c>
       <c r="G34">
-        <v>3.5318318376602602</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>3.8394461071403301</v>
+      </c>
+      <c r="H34">
+        <v>0.99615847416133596</v>
+      </c>
+      <c r="I34">
+        <v>0.36287084118234197</v>
+      </c>
+      <c r="J34">
+        <v>1.6294461071403299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="6">
         <v>1986</v>
       </c>
@@ -1192,16 +1458,25 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E35">
-        <v>3.6878099936158901</v>
+        <v>3.6393640573791899</v>
       </c>
       <c r="F35">
-        <v>3.3911274883298699</v>
+        <v>3.0060764244002001</v>
       </c>
       <c r="G35">
-        <v>3.9844924989019002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>4.2726516903581899</v>
+      </c>
+      <c r="H35">
+        <v>0.94936405737919605</v>
+      </c>
+      <c r="I35">
+        <v>0.31607642440020201</v>
+      </c>
+      <c r="J35">
+        <v>1.58265169035819</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="6">
         <v>1987</v>
       </c>
@@ -1215,16 +1490,25 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E36">
-        <v>3.64212085215717</v>
+        <v>3.62161837944595</v>
       </c>
       <c r="F36">
-        <v>3.35409259256422</v>
+        <v>2.98833074646695</v>
       </c>
       <c r="G36">
-        <v>3.9301491117501302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>4.2549060124249403</v>
+      </c>
+      <c r="H36">
+        <v>1.2316183794459501</v>
+      </c>
+      <c r="I36">
+        <v>0.59833074646695705</v>
+      </c>
+      <c r="J36">
+        <v>1.8649060124249399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="6">
         <v>1988</v>
       </c>
@@ -1238,16 +1522,25 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E37">
-        <v>3.5084960051165699</v>
+        <v>3.5309861537854501</v>
       </c>
       <c r="F37">
-        <v>3.2202698628576298</v>
+        <v>2.8976985208064598</v>
       </c>
       <c r="G37">
-        <v>3.7967221473755099</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>4.1642737867644497</v>
+      </c>
+      <c r="H37">
+        <v>1.2409861537854501</v>
+      </c>
+      <c r="I37">
+        <v>0.60769852080646203</v>
+      </c>
+      <c r="J37">
+        <v>1.8742737867644499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="6">
         <v>1989</v>
       </c>
@@ -1261,16 +1554,25 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E38">
-        <v>3.6181175232833298</v>
+        <v>3.60121978976249</v>
       </c>
       <c r="F38">
-        <v>3.3234540429183799</v>
+        <v>2.96793215678349</v>
       </c>
       <c r="G38">
-        <v>3.91278100364827</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>4.2345074227414798</v>
+      </c>
+      <c r="H38">
+        <v>1.1712197897624901</v>
+      </c>
+      <c r="I38">
+        <v>0.53793215678349704</v>
+      </c>
+      <c r="J38">
+        <v>1.8045074227414799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="6">
         <v>1990</v>
       </c>
@@ -1284,16 +1586,25 @@
         <v>0.2</v>
       </c>
       <c r="E39">
-        <v>3.8226755775101799</v>
+        <v>3.7972840309192102</v>
       </c>
       <c r="F39">
-        <v>3.5861602210947399</v>
+        <v>3.1639963979402199</v>
       </c>
       <c r="G39">
-        <v>4.0591909339256196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>4.4305716638982</v>
+      </c>
+      <c r="H39">
+        <v>1.1672840309192101</v>
+      </c>
+      <c r="I39">
+        <v>0.53399639794022002</v>
+      </c>
+      <c r="J39">
+        <v>1.8005716638981999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="6">
         <v>1991</v>
       </c>
@@ -1307,16 +1618,25 @@
         <v>0.25</v>
       </c>
       <c r="E40">
-        <v>3.6814536293511302</v>
+        <v>3.6637104977255301</v>
       </c>
       <c r="F40">
-        <v>3.44121853107821</v>
+        <v>3.0304228647465399</v>
       </c>
       <c r="G40">
-        <v>3.9216887276240602</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>4.2969981307045302</v>
+      </c>
+      <c r="H40">
+        <v>1.3137104977255301</v>
+      </c>
+      <c r="I40">
+        <v>0.68042286474654301</v>
+      </c>
+      <c r="J40">
+        <v>1.9469981307045301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="6">
         <v>1992</v>
       </c>
@@ -1330,16 +1650,25 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E41">
-        <v>3.5385403759823699</v>
+        <v>3.51852101215077</v>
       </c>
       <c r="F41">
-        <v>3.2947489746147101</v>
+        <v>2.8852333791717699</v>
       </c>
       <c r="G41">
-        <v>3.7823317773500298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>4.1518086451297602</v>
+      </c>
+      <c r="H41">
+        <v>1.1985210121507699</v>
+      </c>
+      <c r="I41">
+        <v>0.56523337917177696</v>
+      </c>
+      <c r="J41">
+        <v>1.8318086451297599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="6">
         <v>1993</v>
       </c>
@@ -1353,16 +1682,25 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="E42">
-        <v>3.60798565711662</v>
+        <v>3.5790323449827102</v>
       </c>
       <c r="F42">
-        <v>3.3701976901106798</v>
+        <v>2.9457447120037199</v>
       </c>
       <c r="G42">
-        <v>3.8457736241225602</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>4.2123199779617</v>
+      </c>
+      <c r="H42">
+        <v>1.3290323449827099</v>
+      </c>
+      <c r="I42">
+        <v>0.69574471200372001</v>
+      </c>
+      <c r="J42">
+        <v>1.9623199779617</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="6">
         <v>1994</v>
       </c>
@@ -1376,16 +1714,25 @@
         <v>0.3</v>
       </c>
       <c r="E43">
-        <v>3.49283880475646</v>
+        <v>3.50984764230637</v>
       </c>
       <c r="F43">
-        <v>3.2499055561729402</v>
+        <v>2.8765600093273802</v>
       </c>
       <c r="G43">
-        <v>3.7357720533399799</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>4.1431352752853696</v>
+      </c>
+      <c r="H43">
+        <v>1.1498476423063699</v>
+      </c>
+      <c r="I43">
+        <v>0.516560009327381</v>
+      </c>
+      <c r="J43">
+        <v>1.78313527528536</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="6">
         <v>1995</v>
       </c>
@@ -1399,16 +1746,25 @@
         <v>0.33</v>
       </c>
       <c r="E44">
-        <v>3.6770384697953098</v>
+        <v>3.63384134714437</v>
       </c>
       <c r="F44">
-        <v>3.40640946329632</v>
+        <v>3.00055371416537</v>
       </c>
       <c r="G44">
-        <v>3.9476674762943</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>4.2671289801233598</v>
+      </c>
+      <c r="H44">
+        <v>1.4438413471443701</v>
+      </c>
+      <c r="I44">
+        <v>0.81055371416537902</v>
+      </c>
+      <c r="J44">
+        <v>2.0771289801233599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="6">
         <v>1996</v>
       </c>
@@ -1422,16 +1778,25 @@
         <v>0.5</v>
       </c>
       <c r="E45">
-        <v>3.6181474739852701</v>
+        <v>3.5913751400754998</v>
       </c>
       <c r="F45">
-        <v>3.3412760962856201</v>
+        <v>2.9580875070964998</v>
       </c>
       <c r="G45">
-        <v>3.8950188516849198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>4.2246627730544901</v>
+      </c>
+      <c r="H45">
+        <v>1.4313751400754999</v>
+      </c>
+      <c r="I45">
+        <v>0.798087507096508</v>
+      </c>
+      <c r="J45">
+        <v>2.06466277305449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="6">
         <v>1997</v>
       </c>
@@ -1445,16 +1810,25 @@
         <v>0.54</v>
       </c>
       <c r="E46">
-        <v>3.5963722337866799</v>
+        <v>3.51249087947956</v>
       </c>
       <c r="F46">
-        <v>3.2069663557280501</v>
+        <v>2.8792032465005701</v>
       </c>
       <c r="G46">
-        <v>3.9857781118453102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>4.1457785124585502</v>
+      </c>
+      <c r="H46">
+        <v>1.3924908794795601</v>
+      </c>
+      <c r="I46">
+        <v>0.75920324650057003</v>
+      </c>
+      <c r="J46">
+        <v>2.0257785124585501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="6">
         <v>1998</v>
       </c>
@@ -1468,16 +1842,25 @@
         <v>0.41</v>
       </c>
       <c r="E47">
-        <v>3.21333379623433</v>
+        <v>3.1216703458210602</v>
       </c>
       <c r="F47">
-        <v>2.72396481979108</v>
+        <v>2.4883827128420601</v>
       </c>
       <c r="G47">
-        <v>3.7027027726775801</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>3.75495797880005</v>
+      </c>
+      <c r="H47">
+        <v>1.0716703458210599</v>
+      </c>
+      <c r="I47">
+        <v>0.43838271284206698</v>
+      </c>
+      <c r="J47">
+        <v>1.70495797880005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="6">
         <v>1999</v>
       </c>
@@ -1491,16 +1874,25 @@
         <v>0.44</v>
       </c>
       <c r="E48">
-        <v>3.0171966379507902</v>
+        <v>2.8828350349362202</v>
       </c>
       <c r="F48">
-        <v>2.35837232469741</v>
+        <v>2.2495474019572299</v>
       </c>
       <c r="G48">
-        <v>3.6760209512041699</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>3.5161226679152202</v>
+      </c>
+      <c r="H48">
+        <v>1.0028350349362201</v>
+      </c>
+      <c r="I48">
+        <v>0.36954740195723501</v>
+      </c>
+      <c r="J48">
+        <v>1.6361226679152201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="6">
         <v>2000</v>
       </c>
@@ -1514,16 +1906,25 @@
         <v>0.43</v>
       </c>
       <c r="E49">
-        <v>2.4089377032884798</v>
+        <v>2.3870585875622501</v>
       </c>
       <c r="F49">
-        <v>1.7523613395878299</v>
+        <v>1.75377095458326</v>
       </c>
       <c r="G49">
-        <v>3.0655140669891301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>3.0203462205412501</v>
+      </c>
+      <c r="H49">
+        <v>0.67705858756225601</v>
+      </c>
+      <c r="I49">
+        <v>4.37709545832623E-2</v>
+      </c>
+      <c r="J49">
+        <v>1.3103462205412499</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="6">
         <v>2001</v>
       </c>
@@ -1537,16 +1938,25 @@
         <v>0.54</v>
       </c>
       <c r="E50">
-        <v>2.6057996863661299</v>
+        <v>2.5867180557316898</v>
       </c>
       <c r="F50">
-        <v>1.9982573282809599</v>
+        <v>1.9534304227527</v>
       </c>
       <c r="G50">
-        <v>3.2133420444512999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>3.22000568871068</v>
+      </c>
+      <c r="H50">
+        <v>0.99671805573169403</v>
+      </c>
+      <c r="I50">
+        <v>0.36343042275269999</v>
+      </c>
+      <c r="J50">
+        <v>1.63000568871068</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="6">
         <v>2002</v>
       </c>
@@ -1560,16 +1970,25 @@
         <v>0.62</v>
       </c>
       <c r="E51">
-        <v>2.9768166867054799</v>
+        <v>2.95936473051264</v>
       </c>
       <c r="F51">
-        <v>2.5013901709939899</v>
+        <v>2.32607709753364</v>
       </c>
       <c r="G51">
-        <v>3.4522432024169598</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>3.5926523634916299</v>
+      </c>
+      <c r="H51">
+        <v>1.5493647305126399</v>
+      </c>
+      <c r="I51">
+        <v>0.91607709753364697</v>
+      </c>
+      <c r="J51">
+        <v>2.1826523634916302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="6">
         <v>2003</v>
       </c>
@@ -1583,16 +2002,25 @@
         <v>0.7</v>
       </c>
       <c r="E52">
-        <v>3.3066010431667499</v>
+        <v>3.3381568737359202</v>
       </c>
       <c r="F52">
-        <v>2.9984389538870602</v>
+        <v>2.7048692407569299</v>
       </c>
       <c r="G52">
-        <v>3.61476313244644</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>3.9714445067149202</v>
+      </c>
+      <c r="H52">
+        <v>2.0681568737359202</v>
+      </c>
+      <c r="I52">
+        <v>1.4348692407569299</v>
+      </c>
+      <c r="J52">
+        <v>2.7014445067149202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="6">
         <v>2004</v>
       </c>
@@ -1606,16 +2034,25 @@
         <v>0.73</v>
       </c>
       <c r="E53">
-        <v>3.6050831148758902</v>
+        <v>3.56496023211997</v>
       </c>
       <c r="F53">
-        <v>3.2906698353690298</v>
+        <v>2.9316725991409802</v>
       </c>
       <c r="G53">
-        <v>3.9194963943827599</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>4.1982478650989696</v>
+      </c>
+      <c r="H53">
+        <v>2.3649602321199699</v>
+      </c>
+      <c r="I53">
+        <v>1.73167259914098</v>
+      </c>
+      <c r="J53">
+        <v>2.9982478650989699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="6">
         <v>2005</v>
       </c>
@@ -1629,16 +2066,25 @@
         <v>0.71</v>
       </c>
       <c r="E54">
-        <v>3.7085568898043699</v>
+        <v>3.61723339675072</v>
       </c>
       <c r="F54">
-        <v>3.2949397288259998</v>
+        <v>2.9839457637717302</v>
       </c>
       <c r="G54">
-        <v>4.12217405078274</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>4.2505210297297102</v>
+      </c>
+      <c r="H54">
+        <v>2.40723339675072</v>
+      </c>
+      <c r="I54">
+        <v>1.77394576377173</v>
+      </c>
+      <c r="J54">
+        <v>3.0405210297297098</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="6">
         <v>2006</v>
       </c>
@@ -1652,16 +2098,25 @@
         <v>0.94</v>
       </c>
       <c r="E55">
-        <v>3.3177287860205098</v>
+        <v>3.26914358520024</v>
       </c>
       <c r="F55">
-        <v>2.86570240901953</v>
+        <v>2.6358559522212399</v>
       </c>
       <c r="G55">
-        <v>3.7697551630214998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>3.9024312181792302</v>
+      </c>
+      <c r="H55">
+        <v>2.1391435852002401</v>
+      </c>
+      <c r="I55">
+        <v>1.50585595222124</v>
+      </c>
+      <c r="J55">
+        <v>2.7724312181792299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="6">
         <v>2007</v>
       </c>
@@ -1675,16 +2130,25 @@
         <v>0.97</v>
       </c>
       <c r="E56">
-        <v>2.9113718748994701</v>
+        <v>2.9341788097833699</v>
       </c>
       <c r="F56">
-        <v>2.46346975392931</v>
+        <v>2.30089117680438</v>
       </c>
       <c r="G56">
-        <v>3.3592739958696201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>3.5674664427623601</v>
+      </c>
+      <c r="H56">
+        <v>1.82417880978337</v>
+      </c>
+      <c r="I56">
+        <v>1.1908911768043799</v>
+      </c>
+      <c r="J56">
+        <v>2.4574664427623598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="6">
         <v>2008</v>
       </c>
@@ -1698,16 +2162,25 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E57">
-        <v>3.3399510541844202</v>
+        <v>3.32709204943753</v>
       </c>
       <c r="F57">
-        <v>2.9801810664871402</v>
+        <v>2.6938044164585402</v>
       </c>
       <c r="G57">
-        <v>3.6997210418817001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>3.96037968241653</v>
+      </c>
+      <c r="H57">
+        <v>2.2470920494375299</v>
+      </c>
+      <c r="I57">
+        <v>1.6138044164585399</v>
+      </c>
+      <c r="J57">
+        <v>2.88037968241653</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="6">
         <v>2009</v>
       </c>
@@ -1721,16 +2194,25 @@
         <v>0.98</v>
       </c>
       <c r="E58">
-        <v>3.55974027364234</v>
+        <v>3.62579542772724</v>
       </c>
       <c r="F58">
-        <v>3.2444400704120602</v>
+        <v>2.9925077947482501</v>
       </c>
       <c r="G58">
-        <v>3.8750404768726101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>4.2590830607062404</v>
+      </c>
+      <c r="H58">
+        <v>2.5657954277272399</v>
+      </c>
+      <c r="I58">
+        <v>1.9325077947482501</v>
+      </c>
+      <c r="J58">
+        <v>3.1990830607062399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="6">
         <v>2010</v>
       </c>
@@ -1744,16 +2226,25 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E59">
-        <v>3.9847441575895899</v>
+        <v>3.9797048265314898</v>
       </c>
       <c r="F59">
-        <v>3.7164217394000398</v>
+        <v>3.3464171935525</v>
       </c>
       <c r="G59">
-        <v>4.2530665757791297</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>4.6129924595104903</v>
+      </c>
+      <c r="H59">
+        <v>2.92970482653149</v>
+      </c>
+      <c r="I59">
+        <v>2.2964171935525002</v>
+      </c>
+      <c r="J59">
+        <v>3.56299245951049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="6">
         <v>2011</v>
       </c>
@@ -1767,16 +2258,25 @@
         <v>1.26</v>
       </c>
       <c r="E60">
-        <v>3.9681913884528099</v>
+        <v>4.0150338011846998</v>
       </c>
       <c r="F60">
-        <v>3.6531137398068698</v>
+        <v>3.3817461682057099</v>
       </c>
       <c r="G60">
-        <v>4.2832690370987496</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>4.6483214341636998</v>
+      </c>
+      <c r="H60">
+        <v>3.0050338011847</v>
+      </c>
+      <c r="I60">
+        <v>2.3717461682057102</v>
+      </c>
+      <c r="J60">
+        <v>3.6383214341637</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="6">
         <v>2012</v>
       </c>
@@ -1790,16 +2290,25 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E61">
-        <v>4.2545302039319299</v>
+        <v>4.2576310309821803</v>
       </c>
       <c r="F61">
-        <v>3.9821563622298699</v>
+        <v>3.6243433980031901</v>
       </c>
       <c r="G61">
-        <v>4.5269040456339997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>4.8909186639611697</v>
+      </c>
+      <c r="H61">
+        <v>3.1976310309821798</v>
+      </c>
+      <c r="I61">
+        <v>2.56434339800319</v>
+      </c>
+      <c r="J61">
+        <v>3.8309186639611701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="6">
         <v>2013</v>
       </c>
@@ -1813,16 +2322,25 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="E62">
-        <v>3.9973275515438602</v>
+        <v>4.0782355516766398</v>
       </c>
       <c r="F62">
-        <v>3.6441211089585099</v>
+        <v>3.4449479186976499</v>
       </c>
       <c r="G62">
-        <v>4.3505339941292203</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>4.7115231846556398</v>
+      </c>
+      <c r="H62">
+        <v>3.14823555167664</v>
+      </c>
+      <c r="I62">
+        <v>2.5149479186976502</v>
+      </c>
+      <c r="J62">
+        <v>3.7815231846556401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="6">
         <v>2014</v>
       </c>
@@ -1836,16 +2354,25 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E63">
-        <v>4.4259573885044796</v>
+        <v>4.4568439433725899</v>
       </c>
       <c r="F63">
-        <v>4.0964477138552198</v>
+        <v>3.8235563103935899</v>
       </c>
       <c r="G63">
-        <v>4.7554670631537403</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>5.0901315763515802</v>
+      </c>
+      <c r="H63">
+        <v>3.6068439433725898</v>
+      </c>
+      <c r="I63">
+        <v>2.9735563103935898</v>
+      </c>
+      <c r="J63">
+        <v>4.2401315763515797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="6">
         <v>2015</v>
       </c>
@@ -1859,16 +2386,25 @@
         <v>1.19</v>
       </c>
       <c r="E64">
-        <v>4.534247688512</v>
+        <v>4.4684894259278298</v>
       </c>
       <c r="F64">
-        <v>4.1430071724495896</v>
+        <v>3.83520179294884</v>
       </c>
       <c r="G64">
-        <v>4.9254882045744104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>5.1017770589068299</v>
+      </c>
+      <c r="H64">
+        <v>3.70848942592783</v>
+      </c>
+      <c r="I64">
+        <v>3.0752017929488402</v>
+      </c>
+      <c r="J64">
+        <v>4.3417770589068301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="6">
         <v>2016</v>
       </c>
@@ -1882,16 +2418,25 @@
         <v>1.2</v>
       </c>
       <c r="E65">
-        <v>4.0468156033554603</v>
+        <v>4.0882001402009696</v>
       </c>
       <c r="F65">
-        <v>3.6246768805273799</v>
+        <v>3.4549125072219802</v>
       </c>
       <c r="G65">
-        <v>4.4689543261835398</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>4.7214877731799696</v>
+      </c>
+      <c r="H65">
+        <v>3.5082001402009699</v>
+      </c>
+      <c r="I65">
+        <v>2.8749125072219801</v>
+      </c>
+      <c r="J65">
+        <v>4.1414877731799704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="6">
         <v>2017</v>
       </c>
@@ -1905,16 +2450,25 @@
         <v>0.99</v>
       </c>
       <c r="E66">
-        <v>3.7814267302076598</v>
+        <v>3.89494713556646</v>
       </c>
       <c r="F66">
-        <v>3.2897538663899502</v>
+        <v>3.2616595025874702</v>
       </c>
       <c r="G66">
-        <v>4.2730995940253704</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>4.5282347685454596</v>
+      </c>
+      <c r="H66">
+        <v>3.3649471355664602</v>
+      </c>
+      <c r="I66">
+        <v>2.7316595025874699</v>
+      </c>
+      <c r="J66">
+        <v>3.9982347685454598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="6">
         <v>2018</v>
       </c>
@@ -1928,16 +2482,25 @@
         <v>0.89</v>
       </c>
       <c r="E67">
-        <v>4.4197008538334401</v>
+        <v>4.4320590580061401</v>
       </c>
       <c r="F67">
-        <v>3.9382568186184201</v>
+        <v>3.7987714250271498</v>
       </c>
       <c r="G67">
-        <v>4.9011448890484601</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>5.0653466909851401</v>
+      </c>
+      <c r="H67">
+        <v>3.89205905800614</v>
+      </c>
+      <c r="I67">
+        <v>3.2587714250271498</v>
+      </c>
+      <c r="J67">
+        <v>4.5253466909851401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="6">
         <v>2019</v>
       </c>
@@ -1951,16 +2514,25 @@
         <v>0.93</v>
       </c>
       <c r="E68">
-        <v>4.7354995147268699</v>
+        <v>4.7218001887817103</v>
       </c>
       <c r="F68">
-        <v>4.2617809431110096</v>
+        <v>4.08851255580272</v>
       </c>
       <c r="G68">
-        <v>5.2092180863427302</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>5.3550878217606996</v>
+      </c>
+      <c r="H68">
+        <v>4.3118001887817101</v>
+      </c>
+      <c r="I68">
+        <v>3.6785125558027199</v>
+      </c>
+      <c r="J68">
+        <v>4.9450878217607004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="8">
         <v>2020</v>
       </c>
@@ -1974,16 +2546,25 @@
         <v>0.84</v>
       </c>
       <c r="E69">
-        <v>4.2471475747366503</v>
+        <v>4.2604988824420396</v>
       </c>
       <c r="F69">
-        <v>3.9157409872989599</v>
+        <v>3.6272112494630502</v>
       </c>
       <c r="G69">
-        <v>4.5785541621743402</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>4.8937865154210396</v>
+      </c>
+      <c r="H69">
+        <v>3.9004988824420401</v>
+      </c>
+      <c r="I69">
+        <v>3.2672112494630499</v>
+      </c>
+      <c r="J69">
+        <v>4.5337865154210402</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="10">
         <v>2021</v>
       </c>
@@ -1995,6 +2576,24 @@
       </c>
       <c r="D70" s="4">
         <v>0</v>
+      </c>
+      <c r="E70">
+        <v>3.9804371217041599</v>
+      </c>
+      <c r="F70">
+        <v>3.3471494887251598</v>
+      </c>
+      <c r="G70">
+        <v>4.6137247546831501</v>
+      </c>
+      <c r="H70">
+        <v>3.5604371217041599</v>
+      </c>
+      <c r="I70">
+        <v>2.9271494887251599</v>
+      </c>
+      <c r="J70">
+        <v>4.1937247546831502</v>
       </c>
     </row>
   </sheetData>
